--- a/lesson14/perekrestok.xlsx
+++ b/lesson14/perekrestok.xlsx
@@ -196,7 +196,7 @@
     <t>Оливки MARKET COLLECTION Халкидики с косточкой, 200 г</t>
   </si>
   <si>
-    <t>Маслины IBERICA чёрные с косточкой; без косточки, 420 г</t>
+    <t>Маслины МАРКЕТ ПЕРЕКРЕСТОК Супергигант с косточкой, 830 г</t>
   </si>
   <si>
     <t>Крем чистящий SANITA Универсал Сила лимона, 600 г</t>
@@ -355,7 +355,7 @@
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/ad7szys7ncmclxhkhedou5e5ra.jpg</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/yqyjk57gluke4x724jknjpfedy.jpg</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/o77v3nqwjtenfqifcrp3bezcdi.jpg</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/h7qeedflzhjbstvhrg4bloefhe.jpg</t>
@@ -867,7 +867,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -1900,22 +1900,22 @@
         <v>113</v>
       </c>
       <c r="E35">
-        <v>219.99</v>
+        <v>399.99</v>
       </c>
       <c r="F35">
-        <v>149.99</v>
+        <v>339.99</v>
       </c>
       <c r="G35">
-        <v>420</v>
+        <v>830</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2138,7 +2138,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>

--- a/lesson14/perekrestok.xlsx
+++ b/lesson14/perekrestok.xlsx
@@ -133,12 +133,12 @@
     <t>Шоколад SUPREME горький с апельсиновыми гранулами, 100 г</t>
   </si>
   <si>
+    <t>Шоколад ЗЕЛЁНАЯ ЛИНИЯ на меду горький 65% какао с апельсином; горький 70% какао классический; молочный 46% какао, 70 г</t>
+  </si>
+  <si>
     <t>Шоколад MOJO в ассортименте, 20 г</t>
   </si>
   <si>
-    <t>Шоколад ЗЕЛЁНАЯ ЛИНИЯ на меду горький 65% какао с апельсином; горький 70% какао классический; молочный 46% какао, 70 г</t>
-  </si>
-  <si>
     <t>Шоколадный батончик БАБАЕВСКИЙ с начинкой шоколадной; сливочной, 50 г</t>
   </si>
   <si>
@@ -190,10 +190,13 @@
     <t>Оливки МАРКЕТ ПЕРЕКРЁСТОК зелёные фаршированные в ассортименте, 300 г</t>
   </si>
   <si>
+    <t>Оливки MARKET COLLECTION Халкидики с косточкой, 200 г</t>
+  </si>
+  <si>
     <t>Оливки MARKET COLLECTION ассорти с косточкой, 200 г</t>
   </si>
   <si>
-    <t>Оливки MARKET COLLECTION Халкидики с косточкой, 200 г</t>
+    <t>Маслины IBERICA чёрные с косточкой; без косточки, 420 г</t>
   </si>
   <si>
     <t>Маслины МАРКЕТ ПЕРЕКРЕСТОК Супергигант с косточкой, 830 г</t>
@@ -241,9 +244,6 @@
     <t>Зефир DONI ZEFIRONI, 210 г</t>
   </si>
   <si>
-    <t>Зефирчики ШАРМЭЛЬ в шоколаде классические, 120 г</t>
-  </si>
-  <si>
     <t>Зефир НЕВА Лянеж с ароматом ванили, 315 г</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/fkef7yyf7n6hpavpa4ejsggstu.jpg</t>
   </si>
   <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/mic24cdhqtt72dnhuaxjkj4y3y.jpg</t>
+  </si>
+  <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/y44jsfq64xrt2voykv7sa4lfh4.jpg</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/mic24cdhqtt72dnhuaxjkj4y3y.jpg</t>
-  </si>
-  <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/rcipbvyi673o6eplpet6h2m5we.jpg</t>
   </si>
   <si>
@@ -349,10 +349,13 @@
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/rvsemxfzlxong4mxhgth5bztfe.jpg</t>
   </si>
   <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/ad7szys7ncmclxhkhedou5e5ra.jpg</t>
+  </si>
+  <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/hozu7js5ra3gyadwjeo6nptdsq.jpg</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/ad7szys7ncmclxhkhedou5e5ra.jpg</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/yqyjk57gluke4x724jknjpfedy.jpg</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/o77v3nqwjtenfqifcrp3bezcdi.jpg</t>
@@ -398,9 +401,6 @@
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/5jqhyaltiiurs3zhgd3y2t36k4.jpg</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/7na7jcpesjbkgoo6dcybz5jzwm.jpg</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/catalyst/offers/yqpfna5olxrzlww7sbcjguheym.jpg</t>
@@ -835,7 +835,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1228,16 +1228,16 @@
         <v>92</v>
       </c>
       <c r="E14">
-        <v>119.9</v>
+        <v>159.99</v>
       </c>
       <c r="F14">
-        <v>79.98999999999999</v>
+        <v>139.99</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>133</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1260,16 +1260,16 @@
         <v>93</v>
       </c>
       <c r="E15">
-        <v>159.99</v>
+        <v>119.9</v>
       </c>
       <c r="F15">
-        <v>139.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="G15">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
         <v>133</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1836,16 +1836,16 @@
         <v>111</v>
       </c>
       <c r="E33">
-        <v>329.99</v>
+        <v>259.99</v>
       </c>
       <c r="F33">
-        <v>199.99</v>
+        <v>159.99</v>
       </c>
       <c r="G33">
         <v>200</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
         <v>134</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -1868,16 +1868,16 @@
         <v>112</v>
       </c>
       <c r="E34">
-        <v>259.99</v>
+        <v>329.99</v>
       </c>
       <c r="F34">
-        <v>159.99</v>
+        <v>199.99</v>
       </c>
       <c r="G34">
         <v>200</v>
       </c>
       <c r="H34">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s">
         <v>134</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -1900,30 +1900,30 @@
         <v>113</v>
       </c>
       <c r="E35">
-        <v>399.99</v>
+        <v>219.99</v>
       </c>
       <c r="F35">
-        <v>339.99</v>
+        <v>149.99</v>
       </c>
       <c r="G35">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>528</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -1932,16 +1932,16 @@
         <v>114</v>
       </c>
       <c r="E36">
-        <v>139.99</v>
+        <v>399.99</v>
       </c>
       <c r="F36">
-        <v>99.98999999999999</v>
+        <v>339.99</v>
       </c>
       <c r="G36">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>134</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>792</v>
+        <v>529</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -1964,13 +1964,16 @@
         <v>115</v>
       </c>
       <c r="E37">
-        <v>249.99</v>
+        <v>139.99</v>
       </c>
       <c r="F37">
-        <v>189.99</v>
+        <v>99.98999999999999</v>
+      </c>
+      <c r="G37">
+        <v>600</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
         <v>134</v>
@@ -1981,10 +1984,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>236</v>
+        <v>788</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -1993,16 +1996,13 @@
         <v>116</v>
       </c>
       <c r="E38">
-        <v>102.9</v>
+        <v>249.99</v>
       </c>
       <c r="F38">
-        <v>69.98999999999999</v>
-      </c>
-      <c r="G38">
-        <v>50</v>
+        <v>189.99</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
         <v>134</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -2025,16 +2025,16 @@
         <v>117</v>
       </c>
       <c r="E39">
-        <v>95.98999999999999</v>
+        <v>102.9</v>
       </c>
       <c r="F39">
-        <v>59.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="G39">
         <v>50</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I39" t="s">
         <v>134</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -2057,13 +2057,16 @@
         <v>118</v>
       </c>
       <c r="E40">
-        <v>104.9</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="F40">
-        <v>69.98999999999999</v>
+        <v>59.99</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
         <v>134</v>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>708</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -2086,30 +2089,27 @@
         <v>119</v>
       </c>
       <c r="E41">
-        <v>59.9</v>
+        <v>104.9</v>
       </c>
       <c r="F41">
-        <v>39.99</v>
-      </c>
-      <c r="G41">
-        <v>45</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="H41">
         <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>57</v>
+        <v>705</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -2118,27 +2118,27 @@
         <v>120</v>
       </c>
       <c r="E42">
-        <v>77.98999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="F42">
         <v>39.99</v>
       </c>
       <c r="G42">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2150,16 +2150,16 @@
         <v>121</v>
       </c>
       <c r="E43">
-        <v>99.98999999999999</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="F43">
-        <v>69.98999999999999</v>
+        <v>39.99</v>
       </c>
       <c r="G43">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
         <v>134</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>783</v>
+        <v>436</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -2182,16 +2182,16 @@
         <v>122</v>
       </c>
       <c r="E44">
-        <v>194.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F44">
-        <v>119.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="G44">
         <v>250</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I44" t="s">
         <v>134</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>829</v>
+        <v>782</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -2214,16 +2214,16 @@
         <v>123</v>
       </c>
       <c r="E45">
-        <v>129.9</v>
+        <v>194.99</v>
       </c>
       <c r="F45">
-        <v>89.98999999999999</v>
+        <v>119.99</v>
       </c>
       <c r="G45">
         <v>250</v>
       </c>
       <c r="H45">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
         <v>134</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -2246,16 +2246,16 @@
         <v>124</v>
       </c>
       <c r="E46">
-        <v>1499</v>
+        <v>129.9</v>
       </c>
       <c r="F46">
-        <v>1199</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G46">
-        <v>725</v>
+        <v>250</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
         <v>134</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -2278,16 +2278,16 @@
         <v>125</v>
       </c>
       <c r="E47">
-        <v>99.90000000000001</v>
+        <v>1499</v>
       </c>
       <c r="F47">
-        <v>79.98999999999999</v>
+        <v>1199</v>
       </c>
       <c r="G47">
-        <v>250</v>
+        <v>725</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>134</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -2310,16 +2310,16 @@
         <v>126</v>
       </c>
       <c r="E48">
-        <v>14.99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F48">
-        <v>9.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
         <v>134</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>77</v>
+        <v>890</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -2342,16 +2342,16 @@
         <v>127</v>
       </c>
       <c r="E49">
-        <v>154.99</v>
+        <v>14.99</v>
       </c>
       <c r="F49">
-        <v>89.98999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="G49">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
         <v>134</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -2374,16 +2374,16 @@
         <v>128</v>
       </c>
       <c r="E50">
-        <v>239.99</v>
+        <v>154.99</v>
       </c>
       <c r="F50">
-        <v>149.99</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G50">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="H50">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
         <v>134</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
